--- a/test-code-generator/Evaluation/Results/quantitative_analysis_results.xlsx
+++ b/test-code-generator/Evaluation/Results/quantitative_analysis_results.xlsx
@@ -504,7 +504,7 @@
         <v>0.07428420310449788</v>
       </c>
       <c r="F2" t="n">
-        <v>0.240177625605921</v>
+        <v>0.2272743997994694</v>
       </c>
       <c r="G2" t="n">
         <v>0.9111813439813872</v>
@@ -535,7 +535,7 @@
         <v>0.0753538535441081</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2140601269782228</v>
+        <v>0.2223934603115561</v>
       </c>
       <c r="G3" t="n">
         <v>0.7791074511605334</v>
@@ -566,7 +566,7 @@
         <v>0.09371188840539432</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2925655275071551</v>
+        <v>0.260919957886902</v>
       </c>
       <c r="G4" t="n">
         <v>0.5017179725538308</v>
@@ -597,7 +597,7 @@
         <v>0.08727842956031195</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2986099442542581</v>
+        <v>0.2861099442542581</v>
       </c>
       <c r="G5" t="n">
         <v>0.7108625339169765</v>
@@ -628,7 +628,7 @@
         <v>0.07150140594142128</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2263861667619485</v>
+        <v>0.2563157442267372</v>
       </c>
       <c r="G6" t="n">
         <v>0.811598020376281</v>
@@ -659,7 +659,7 @@
         <v>0.08499342311134304</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2701644659667506</v>
+        <v>0.2430944022724831</v>
       </c>
       <c r="G7" t="n">
         <v>0.7922215881731494</v>
@@ -690,7 +690,7 @@
         <v>0.1012206612714111</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3040507380433932</v>
+        <v>0.3421459761386313</v>
       </c>
       <c r="G8" t="n">
         <v>0.8791427387670114</v>
@@ -721,7 +721,7 @@
         <v>0.08241737011067697</v>
       </c>
       <c r="F9" t="n">
-        <v>0.281496198452983</v>
+        <v>0.2979797149364995</v>
       </c>
       <c r="G9" t="n">
         <v>0.8125267974608104</v>
@@ -752,7 +752,7 @@
         <v>0.0657276363698262</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3070794321608488</v>
+        <v>0.3206663886825879</v>
       </c>
       <c r="G10" t="n">
         <v>0.8640630327729519</v>
@@ -783,7 +783,7 @@
         <v>0.1140777195744919</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2917253219783428</v>
+        <v>0.3024780101503858</v>
       </c>
       <c r="G11" t="n">
         <v>0.8815571023392249</v>
@@ -814,7 +814,7 @@
         <v>0.08515643569758648</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2886435712242112</v>
+        <v>0.3239376888712701</v>
       </c>
       <c r="G12" t="n">
         <v>0.616442653268964</v>
@@ -845,7 +845,7 @@
         <v>0.08533426372796167</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2891638084736728</v>
+        <v>0.3215167496501434</v>
       </c>
       <c r="G13" t="n">
         <v>0.5926424133616122</v>
@@ -876,7 +876,7 @@
         <v>0.06773015082000793</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3253501897437739</v>
+        <v>0.319397808791393</v>
       </c>
       <c r="G14" t="n">
         <v>0.799892522827738</v>
@@ -907,7 +907,7 @@
         <v>0.0704367794283077</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3106136319912257</v>
+        <v>0.2993776769350459</v>
       </c>
       <c r="G15" t="n">
         <v>0.893653131701414</v>
@@ -938,7 +938,7 @@
         <v>0.06420324406224556</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2785910815676469</v>
+        <v>0.3172815577581231</v>
       </c>
       <c r="G16" t="n">
         <v>0.7771577320072967</v>
@@ -969,7 +969,7 @@
         <v>0.107819470771444</v>
       </c>
       <c r="F17" t="n">
-        <v>0.295453046058106</v>
+        <v>0.3099879297790363</v>
       </c>
       <c r="G17" t="n">
         <v>0.382831176269638</v>
@@ -1000,7 +1000,7 @@
         <v>0.05489363236837091</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2714935515495237</v>
+        <v>0.2875191925751648</v>
       </c>
       <c r="G18" t="n">
         <v>0.6989282594950832</v>
@@ -1088,7 +1088,7 @@
         <v>0.08208958696141194</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2833647435651028</v>
+        <v>0.2918520866040863</v>
       </c>
       <c r="D2" t="n">
         <v>0.7491503645019474</v>
@@ -1114,7 +1114,7 @@
         <v>0.1058997501256321</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2668618193587315</v>
+        <v>0.278127238419243</v>
       </c>
       <c r="D4" t="n">
         <v>0.7987159111592808</v>
@@ -1130,7 +1130,7 @@
         <v>0.1149808289628087</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2767064125743437</v>
+        <v>0.2657450540840036</v>
       </c>
       <c r="D5" t="n">
         <v>0.7489376307551003</v>
@@ -1146,7 +1146,7 @@
         <v>0.1377655174798085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2878713615495709</v>
+        <v>0.3030101439600147</v>
       </c>
       <c r="D6" t="n">
         <v>0.7445258361420666</v>
@@ -1162,7 +1162,7 @@
         <v>0.1147316637001267</v>
       </c>
       <c r="C7" t="n">
-        <v>0.276566300387944</v>
+        <v>0.2655248136924757</v>
       </c>
       <c r="D7" t="n">
         <v>0.748369249747951</v>
@@ -1178,7 +1178,7 @@
         <v>0.1080200719536229</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2774179286093486</v>
+        <v>0.2847190139212144</v>
       </c>
       <c r="D8" t="n">
         <v>0.7445479849997549</v>
@@ -1204,7 +1204,7 @@
         <v>0.1455803138850221</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2958474287357252</v>
+        <v>0.3087171454443676</v>
       </c>
       <c r="D10" t="n">
         <v>0.8179216698665777</v>
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1455803138850221</v>
+        <v>0.1272448545251731</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2958474287357252</v>
+        <v>0.3128690611564759</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8179216698665777</v>
+        <v>0.8086228219352509</v>
       </c>
     </row>
     <row r="13">
@@ -1297,7 +1297,7 @@
         <v>0.01575064894478216</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03004260972078816</v>
+        <v>0.03546929417448341</v>
       </c>
       <c r="D2" t="n">
         <v>0.1437330457418413</v>
@@ -1323,7 +1323,7 @@
         <v>0.03154786191973317</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04127738263406631</v>
+        <v>0.04605627835320813</v>
       </c>
       <c r="D4" t="n">
         <v>0.1098119572158125</v>
@@ -1339,7 +1339,7 @@
         <v>0.04738963796836864</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04845724644277718</v>
+        <v>0.04471307763725015</v>
       </c>
       <c r="D5" t="n">
         <v>0.1264100282130649</v>
@@ -1355,7 +1355,7 @@
         <v>0.05102045568687512</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04830304738904919</v>
+        <v>0.05403748339357694</v>
       </c>
       <c r="D6" t="n">
         <v>0.116007828974211</v>
@@ -1371,7 +1371,7 @@
         <v>0.04696485655392792</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04863377884441385</v>
+        <v>0.04500057264587609</v>
       </c>
       <c r="D7" t="n">
         <v>0.1272018309423572</v>
@@ -1387,7 +1387,7 @@
         <v>0.03750931910954306</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04467819794756157</v>
+        <v>0.04424939378981744</v>
       </c>
       <c r="D8" t="n">
         <v>0.1950285470562821</v>
@@ -1413,7 +1413,7 @@
         <v>0.04082585294713778</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04876478864841175</v>
+        <v>0.05357308218140695</v>
       </c>
       <c r="D10" t="n">
         <v>0.113259665592209</v>
@@ -1436,13 +1436,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04082585294713778</v>
+        <v>0.03452748680339674</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04876478864841175</v>
+        <v>0.05439785841054107</v>
       </c>
       <c r="D12" t="n">
-        <v>0.113259665592209</v>
+        <v>0.1292185310539295</v>
       </c>
     </row>
     <row r="13">
@@ -1506,7 +1506,7 @@
         <v>0.05489363236837091</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2140601269782228</v>
+        <v>0.2223934603115561</v>
       </c>
       <c r="D2" t="n">
         <v>0.382831176269638</v>
@@ -1532,7 +1532,7 @@
         <v>0.03821712062510718</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1736050408391118</v>
+        <v>0.1703999126339836</v>
       </c>
       <c r="D4" t="n">
         <v>0.6225818585643652</v>
@@ -1548,7 +1548,7 @@
         <v>0.03198671405589622</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2120389332380099</v>
+        <v>0.2081927793918561</v>
       </c>
       <c r="D5" t="n">
         <v>0.5828405764307693</v>
@@ -1564,7 +1564,7 @@
         <v>0.04500653599041117</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1763580320785203</v>
+        <v>0.1872554679759562</v>
       </c>
       <c r="D6" t="n">
         <v>0.5760314784493452</v>
@@ -1580,7 +1580,7 @@
         <v>0.0320489473462495</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2110322481398545</v>
+        <v>0.206545068652675</v>
       </c>
       <c r="D7" t="n">
         <v>0.5828405764307693</v>
@@ -1596,7 +1596,7 @@
         <v>0.0282416407933045</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1693435919612135</v>
+        <v>0.1674205150381366</v>
       </c>
       <c r="D8" t="n">
         <v>0.1235091914340451</v>
@@ -1622,7 +1622,7 @@
         <v>0.04826520173294598</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1846728557195388</v>
+        <v>0.1840318300785132</v>
       </c>
       <c r="D10" t="n">
         <v>0.5868208288758379</v>
@@ -1645,13 +1645,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04826520173294598</v>
+        <v>0.05135085245750105</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1846728557195388</v>
+        <v>0.1979049916070554</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5868208288758379</v>
+        <v>0.4607057954493304</v>
       </c>
     </row>
     <row r="13">
@@ -1715,7 +1715,7 @@
         <v>0.1140777195744919</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3253501897437739</v>
+        <v>0.3421459761386313</v>
       </c>
       <c r="D2" t="n">
         <v>0.9111813439813872</v>
@@ -1741,7 +1741,7 @@
         <v>0.1658425703011601</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3333339974290856</v>
+        <v>0.3571435212386094</v>
       </c>
       <c r="D4" t="n">
         <v>0.9081081587271729</v>
@@ -1757,7 +1757,7 @@
         <v>0.1816204270030371</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3526538105939511</v>
+        <v>0.333606191546332</v>
       </c>
       <c r="D5" t="n">
         <v>0.9252854533554009</v>
@@ -1773,7 +1773,7 @@
         <v>0.2551855286176491</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4020742385377298</v>
+        <v>0.4211218575853489</v>
       </c>
       <c r="D6" t="n">
         <v>0.9083710383433946</v>
@@ -1789,7 +1789,7 @@
         <v>0.1795648716112284</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3526538105939511</v>
+        <v>0.333606191546332</v>
       </c>
       <c r="D7" t="n">
         <v>0.9252854533554009</v>
@@ -1805,7 +1805,7 @@
         <v>0.1689174524059005</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3493111683022194</v>
+        <v>0.3421683111593622</v>
       </c>
       <c r="D8" t="n">
         <v>0.9635762266826113</v>
@@ -1831,7 +1831,7 @@
         <v>0.2093277531430746</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3725397253633281</v>
+        <v>0.3773016301252329</v>
       </c>
       <c r="D10" t="n">
         <v>0.931474143556974</v>
@@ -1854,13 +1854,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2093277531430746</v>
+        <v>0.1902584951434026</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3725397253633281</v>
+        <v>0.383349315480437</v>
       </c>
       <c r="D12" t="n">
-        <v>0.931474143556974</v>
+        <v>0.9380770128604092</v>
       </c>
     </row>
     <row r="13">
@@ -3348,7 +3348,7 @@
         <v>0.06010144320982051</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1835656965344488</v>
+        <v>0.1892108578247714</v>
       </c>
       <c r="G2" t="n">
         <v>0.6465310685918169</v>
@@ -3379,7 +3379,7 @@
         <v>0.03821712062510718</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1736050408391118</v>
+        <v>0.1703999126339836</v>
       </c>
       <c r="G3" t="n">
         <v>0.9064146686587096</v>
@@ -3441,7 +3441,7 @@
         <v>0.1393313676699542</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3003800226805455</v>
+        <v>0.2972550226805455</v>
       </c>
       <c r="G5" t="n">
         <v>0.6903502296784195</v>
@@ -3472,7 +3472,7 @@
         <v>0.09459896723790603</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2390065294631369</v>
+        <v>0.2478093463645453</v>
       </c>
       <c r="G6" t="n">
         <v>0.7977744695361679</v>
@@ -3503,7 +3503,7 @@
         <v>0.1143157599296068</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2766389994472205</v>
+        <v>0.2702695726956281</v>
       </c>
       <c r="G7" t="n">
         <v>0.633856676927821</v>
@@ -3534,7 +3534,7 @@
         <v>0.1410223668516979</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3333339974290856</v>
+        <v>0.3571435212386094</v>
       </c>
       <c r="G8" t="n">
         <v>0.8909280568780844</v>
@@ -3590,7 +3590,7 @@
         <v>0.092481120453292</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3019884666684997</v>
+        <v>0.3291623797119779</v>
       </c>
       <c r="G10" t="n">
         <v>0.893889843775112</v>
@@ -3621,7 +3621,7 @@
         <v>0.1434735472008356</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3036414372992564</v>
+        <v>0.2928887491272134</v>
       </c>
       <c r="G11" t="n">
         <v>0.9048641310496174</v>
@@ -3652,7 +3652,7 @@
         <v>0.09645012114223925</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2529545045623279</v>
+        <v>0.2853074457387985</v>
       </c>
       <c r="G12" t="n">
         <v>0.691370862864612</v>
@@ -3683,7 +3683,7 @@
         <v>0.08993399093494622</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2690207408326153</v>
+        <v>0.301373682009086</v>
       </c>
       <c r="G13" t="n">
         <v>0.6850179607518823</v>
@@ -3714,7 +3714,7 @@
         <v>0.0981770772598767</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2739101815571823</v>
+        <v>0.3126006577476584</v>
       </c>
       <c r="G14" t="n">
         <v>0.8190121262613472</v>
@@ -3745,7 +3745,7 @@
         <v>0.1009873426581653</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2630476915997347</v>
+        <v>0.2883285904761391</v>
       </c>
       <c r="G15" t="n">
         <v>0.855512575144713</v>
@@ -3776,7 +3776,7 @@
         <v>0.1013602641128808</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2879849400220368</v>
+        <v>0.3058420828791796</v>
       </c>
       <c r="G16" t="n">
         <v>0.8587963305103545</v>
@@ -3807,7 +3807,7 @@
         <v>0.09578916373048774</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2491919426004884</v>
+        <v>0.2520989193446744</v>
       </c>
       <c r="G17" t="n">
         <v>0.8988336871127024</v>
@@ -3838,7 +3838,7 @@
         <v>0.09378996018278257</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2461535555158222</v>
+        <v>0.2557689401312068</v>
       </c>
       <c r="G18" t="n">
         <v>0.6225818585643652</v>
@@ -3869,7 +3869,7 @@
         <v>0.1658425703011601</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2908983875687113</v>
+        <v>0.2813745780449018</v>
       </c>
       <c r="G19" t="n">
         <v>0.8743277846748765</v>
@@ -3951,7 +3951,7 @@
         <v>0.09449862466783621</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2208019981325697</v>
+        <v>0.2232213529712794</v>
       </c>
       <c r="G2" t="n">
         <v>0.863864912387353</v>
@@ -3982,7 +3982,7 @@
         <v>0.03198671405589622</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2120389332380099</v>
+        <v>0.2081927793918561</v>
       </c>
       <c r="G3" t="n">
         <v>0.6664320858164487</v>
@@ -4013,7 +4013,7 @@
         <v>0.1462234729907618</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2628006236281948</v>
+        <v>0.2533069527421188</v>
       </c>
       <c r="G4" t="n">
         <v>0.9252854533554009</v>
@@ -4044,7 +4044,7 @@
         <v>0.1816204270030371</v>
       </c>
       <c r="F5" t="n">
-        <v>0.325260689965263</v>
+        <v>0.315885689965263</v>
       </c>
       <c r="G5" t="n">
         <v>0.6415992790103233</v>
@@ -4075,7 +4075,7 @@
         <v>0.08737844542753467</v>
       </c>
       <c r="F6" t="n">
-        <v>0.274613427374613</v>
+        <v>0.2358810330084158</v>
       </c>
       <c r="G6" t="n">
         <v>0.884630376302008</v>
@@ -4137,7 +4137,7 @@
         <v>0.09480860612339753</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3018908400269084</v>
+        <v>0.2922754554115237</v>
       </c>
       <c r="G8" t="n">
         <v>0.6947455504531581</v>
@@ -4168,7 +4168,7 @@
         <v>0.1558610069341379</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3526538105939511</v>
+        <v>0.333606191546332</v>
       </c>
       <c r="G9" t="n">
         <v>0.7321028122853414</v>
@@ -4250,7 +4250,7 @@
         <v>0.06002309290620027</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2137885769057445</v>
+        <v>0.2081434156154219</v>
       </c>
       <c r="G2" t="n">
         <v>0.8327897064485852</v>
@@ -4281,7 +4281,7 @@
         <v>0.04500653599041117</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1763580320785203</v>
+        <v>0.1872554679759562</v>
       </c>
       <c r="G3" t="n">
         <v>0.7577366593274246</v>
@@ -4312,7 +4312,7 @@
         <v>0.1521646523552269</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3319637977432719</v>
+        <v>0.3256346838192212</v>
       </c>
       <c r="G4" t="n">
         <v>0.6362074708931229</v>
@@ -4343,7 +4343,7 @@
         <v>0.1436891122807403</v>
       </c>
       <c r="F5" t="n">
-        <v>0.321088244475365</v>
+        <v>0.3023382444753649</v>
       </c>
       <c r="G5" t="n">
         <v>0.6800681630750736</v>
@@ -4374,7 +4374,7 @@
         <v>0.07899881608984721</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2411780472015264</v>
+        <v>0.2464597373423715</v>
       </c>
       <c r="G6" t="n">
         <v>0.7703984988613429</v>
@@ -4405,7 +4405,7 @@
         <v>0.09413266105154956</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2681050241625016</v>
+        <v>0.2665126674746036</v>
       </c>
       <c r="G7" t="n">
         <v>0.6086277154263944</v>
@@ -4436,7 +4436,7 @@
         <v>0.2551855286176491</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4020742385377298</v>
+        <v>0.4211218575853489</v>
       </c>
       <c r="G8" t="n">
         <v>0.9083710383433946</v>
@@ -4467,7 +4467,7 @@
         <v>0.1770994089866544</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3065697598209665</v>
+        <v>0.3450312982825049</v>
       </c>
       <c r="G9" t="n">
         <v>0.6722293099207788</v>
@@ -4498,7 +4498,7 @@
         <v>0.1401184800643443</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3110227473524679</v>
+        <v>0.3517836169176852</v>
       </c>
       <c r="G10" t="n">
         <v>0.8997683740126933</v>
@@ -4529,7 +4529,7 @@
         <v>0.1991022788073536</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3102768284083366</v>
+        <v>0.3237176886233904</v>
       </c>
       <c r="G11" t="n">
         <v>0.8915107757736361</v>
@@ -4560,7 +4560,7 @@
         <v>0.1235704956716785</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2751388776119031</v>
+        <v>0.3074918187883737</v>
       </c>
       <c r="G12" t="n">
         <v>0.657042263976606</v>
@@ -4591,7 +4591,7 @@
         <v>0.1211459598520071</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2740119028029336</v>
+        <v>0.3093060204499925</v>
       </c>
       <c r="G13" t="n">
         <v>0.6668553312442823</v>
@@ -4622,7 +4622,7 @@
         <v>0.1407571790928713</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2924470879319078</v>
+        <v>0.3103042307890506</v>
       </c>
       <c r="G14" t="n">
         <v>0.6267870708289267</v>
@@ -4653,7 +4653,7 @@
         <v>0.1285980532910151</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2891449231316325</v>
+        <v>0.311616833243992</v>
       </c>
       <c r="G15" t="n">
         <v>0.8257477823831507</v>
@@ -4684,7 +4684,7 @@
         <v>0.1350330148043991</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2767403357656455</v>
+        <v>0.3154308119561217</v>
       </c>
       <c r="G16" t="n">
         <v>0.6404359428358747</v>
@@ -4715,7 +4715,7 @@
         <v>0.20225288428756</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3120289555429744</v>
+        <v>0.3527266299615791</v>
       </c>
       <c r="G17" t="n">
         <v>0.8891023575668759</v>
@@ -4746,7 +4746,7 @@
         <v>0.1331351526019934</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3071939207585921</v>
+        <v>0.2943734079380793</v>
       </c>
       <c r="G18" t="n">
         <v>0.5760314784493452</v>
@@ -4777,7 +4777,7 @@
         <v>0.1497660078850516</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2725532076602558</v>
+        <v>0.2749341600412081</v>
       </c>
       <c r="G19" t="n">
         <v>0.8617551111896915</v>
@@ -4859,7 +4859,7 @@
         <v>0.09449862466783621</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2208019981325697</v>
+        <v>0.2232213529712794</v>
       </c>
       <c r="G2" t="n">
         <v>0.863864912387353</v>
@@ -4890,7 +4890,7 @@
         <v>0.0320489473462495</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2110322481398545</v>
+        <v>0.206545068652675</v>
       </c>
       <c r="G3" t="n">
         <v>0.6722729327723853</v>
@@ -4921,7 +4921,7 @@
         <v>0.1462234729907618</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2628006236281948</v>
+        <v>0.2533069527421188</v>
       </c>
       <c r="G4" t="n">
         <v>0.9252854533554009</v>
@@ -4952,7 +4952,7 @@
         <v>0.1795648716112284</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3251464775722211</v>
+        <v>0.3157714775722211</v>
       </c>
       <c r="G5" t="n">
         <v>0.6312113839971921</v>
@@ -4983,7 +4983,7 @@
         <v>0.08737844542753467</v>
       </c>
       <c r="F6" t="n">
-        <v>0.274613427374613</v>
+        <v>0.2358810330084158</v>
       </c>
       <c r="G6" t="n">
         <v>0.884630376302008</v>
@@ -5045,7 +5045,7 @@
         <v>0.09480860612339753</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3018908400269084</v>
+        <v>0.2922754554115237</v>
       </c>
       <c r="G8" t="n">
         <v>0.6947455504531581</v>
@@ -5076,7 +5076,7 @@
         <v>0.1558610069341379</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3526538105939511</v>
+        <v>0.333606191546332</v>
       </c>
       <c r="G9" t="n">
         <v>0.7321028122853414</v>
@@ -5158,7 +5158,7 @@
         <v>0.05823614108818598</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1983215458382984</v>
+        <v>0.193482836160879</v>
       </c>
       <c r="G2" t="n">
         <v>0.7892237459460902</v>
@@ -5189,7 +5189,7 @@
         <v>0.0282416407933045</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1693435919612135</v>
+        <v>0.1674205150381366</v>
       </c>
       <c r="G3" t="n">
         <v>0.9635762266826113</v>
@@ -5220,7 +5220,7 @@
         <v>0.1406053285037152</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2951171082160937</v>
+        <v>0.298281665178119</v>
       </c>
       <c r="G4" t="n">
         <v>0.1235091914340451</v>
@@ -5251,7 +5251,7 @@
         <v>0.1689174524059005</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3284234982330339</v>
+        <v>0.3190484982330338</v>
       </c>
       <c r="G5" t="n">
         <v>0.6199544459317843</v>
@@ -5282,7 +5282,7 @@
         <v>0.09584384498569481</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2743266267075989</v>
+        <v>0.2426364858625285</v>
       </c>
       <c r="G6" t="n">
         <v>0.8611936227291009</v>
@@ -5313,7 +5313,7 @@
         <v>0.1103712366305038</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2463298857568411</v>
+        <v>0.2526993125084334</v>
       </c>
       <c r="G7" t="n">
         <v>0.7301566224057848</v>
@@ -5344,7 +5344,7 @@
         <v>0.1568990805389059</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3493111683022194</v>
+        <v>0.3421683111593622</v>
       </c>
       <c r="G8" t="n">
         <v>0.842779073338177</v>
@@ -5375,7 +5375,7 @@
         <v>0.1551375132818893</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2855594344146958</v>
+        <v>0.3130319618872233</v>
       </c>
       <c r="G9" t="n">
         <v>0.6489182458047602</v>
@@ -5406,7 +5406,7 @@
         <v>0.08417659076403987</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2819721384249597</v>
+        <v>0.3118634427727858</v>
       </c>
       <c r="G10" t="n">
         <v>0.8960831210606059</v>
@@ -5468,7 +5468,7 @@
         <v>0.09528338574839093</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2466395979611747</v>
+        <v>0.28781606854941</v>
       </c>
       <c r="G12" t="n">
         <v>0.6802301810815002</v>
@@ -5499,7 +5499,7 @@
         <v>0.09175487238184334</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2556750986280383</v>
+        <v>0.2939103927456854</v>
       </c>
       <c r="G13" t="n">
         <v>0.6679287428194797</v>
@@ -5530,7 +5530,7 @@
         <v>0.08676156056606386</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2865468139027426</v>
+        <v>0.3103563377122665</v>
       </c>
       <c r="G14" t="n">
         <v>0.7093355249669493</v>
@@ -5561,7 +5561,7 @@
         <v>0.08000260405525979</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2538397078345891</v>
+        <v>0.2931655505312183</v>
       </c>
       <c r="G15" t="n">
         <v>0.9040031457786135</v>
@@ -5592,7 +5592,7 @@
         <v>0.08465585553067155</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3288543311365225</v>
+        <v>0.3050448073269987</v>
       </c>
       <c r="G16" t="n">
         <v>0.8916641153193877</v>
@@ -5623,7 +5623,7 @@
         <v>0.1407452350768398</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2878061442228339</v>
+        <v>0.296527074455392</v>
       </c>
       <c r="G17" t="n">
         <v>0.897492258943114</v>
@@ -5654,7 +5654,7 @@
         <v>0.09559305874661032</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2925651577171319</v>
+        <v>0.2893600295120036</v>
       </c>
       <c r="G18" t="n">
         <v>0.5799204178006125</v>
@@ -5685,7 +5685,7 @@
         <v>0.1387763462793593</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3143198975649131</v>
+        <v>0.3095579928030083</v>
       </c>
       <c r="G19" t="n">
         <v>0.6853683780231075</v>
@@ -5767,7 +5767,7 @@
         <v>0.08434849886304036</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2099719997849161</v>
+        <v>0.2140042578494322</v>
       </c>
       <c r="G2" t="n">
         <v>0.8047694415538189</v>
@@ -5798,7 +5798,7 @@
         <v>0.04826520173294598</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1846728557195388</v>
+        <v>0.1840318300785132</v>
       </c>
       <c r="G3" t="n">
         <v>0.9181394228791255</v>
@@ -5829,7 +5829,7 @@
         <v>0.1572152382704014</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2699667541506972</v>
+        <v>0.2731313111127225</v>
       </c>
       <c r="G4" t="n">
         <v>0.931474143556974</v>
@@ -5891,7 +5891,7 @@
         <v>0.1215889158640626</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2314808735537284</v>
+        <v>0.2402836904551368</v>
       </c>
       <c r="G6" t="n">
         <v>0.9214534326435898</v>
@@ -5922,7 +5922,7 @@
         <v>0.1313600924709181</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2729993572537679</v>
+        <v>0.2666299305021755</v>
       </c>
       <c r="G7" t="n">
         <v>0.8600487581918407</v>
@@ -5953,7 +5953,7 @@
         <v>0.1764789212357702</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3725397253633281</v>
+        <v>0.3773016301252329</v>
       </c>
       <c r="G8" t="n">
         <v>0.9243029822767175</v>
@@ -5984,7 +5984,7 @@
         <v>0.190015533466694</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3413652379852757</v>
+        <v>0.349606996227034</v>
       </c>
       <c r="G9" t="n">
         <v>0.6918598332955899</v>
@@ -6015,7 +6015,7 @@
         <v>0.125144981757211</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3294628226696942</v>
+        <v>0.3756584748436072</v>
       </c>
       <c r="G10" t="n">
         <v>0.8717237142898642</v>
@@ -6046,7 +6046,7 @@
         <v>0.2018785171297541</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3396793618525686</v>
+        <v>0.3316148457235364</v>
       </c>
       <c r="G11" t="n">
         <v>0.9154994355453789</v>
@@ -6077,7 +6077,7 @@
         <v>0.1389662129565341</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3026457252067112</v>
+        <v>0.3232339605008289</v>
       </c>
       <c r="G12" t="n">
         <v>0.699926655141988</v>
@@ -6108,7 +6108,7 @@
         <v>0.130915717401245</v>
       </c>
       <c r="F13" t="n">
-        <v>0.290721687662401</v>
+        <v>0.3054275700153422</v>
       </c>
       <c r="G13" t="n">
         <v>0.6936901879229446</v>
@@ -6139,7 +6139,7 @@
         <v>0.1473384106733774</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2932815792964595</v>
+        <v>0.3170911031059833</v>
       </c>
       <c r="G14" t="n">
         <v>0.8550709593080587</v>
@@ -6170,7 +6170,7 @@
         <v>0.1498701785195733</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2952547686868131</v>
+        <v>0.3317716226193974</v>
       </c>
       <c r="G15" t="n">
         <v>0.8190076714746602</v>
@@ -6201,7 +6201,7 @@
         <v>0.1348668585801454</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3020676661279283</v>
+        <v>0.3288533804136425</v>
       </c>
       <c r="G16" t="n">
         <v>0.9208390536171729</v>
@@ -6232,7 +6232,7 @@
         <v>0.2093277531430746</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3325175104416962</v>
+        <v>0.3615872778835567</v>
       </c>
       <c r="G17" t="n">
         <v>0.9133313774258236</v>
@@ -6263,7 +6263,7 @@
         <v>0.1156632959831088</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2903995772013246</v>
+        <v>0.3128354746372221</v>
       </c>
       <c r="G18" t="n">
         <v>0.5868208288758379</v>
@@ -6294,7 +6294,7 @@
         <v>0.1872952725396275</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3395178758176217</v>
+        <v>0.3371369234366693</v>
       </c>
       <c r="G19" t="n">
         <v>0.6269196287002572</v>
@@ -6373,13 +6373,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.08434849886304036</v>
+        <v>0.08781567715392302</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2099719997849161</v>
+        <v>0.2243203987552034</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8047694415538189</v>
+        <v>0.8943429703917645</v>
       </c>
     </row>
     <row r="3">
@@ -6404,13 +6404,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.04826520173294598</v>
+        <v>0.05135085245750105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1846728557195388</v>
+        <v>0.1979049916070554</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9181394228791255</v>
+        <v>0.7952258130289469</v>
       </c>
     </row>
     <row r="4">
@@ -6435,13 +6435,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1572152382704014</v>
+        <v>0.1067931366085375</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2699667541506972</v>
+        <v>0.257156682201655</v>
       </c>
       <c r="G4" t="n">
-        <v>0.931474143556974</v>
+        <v>0.933243252828546</v>
       </c>
     </row>
     <row r="5">
@@ -6466,13 +6466,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1699060493429148</v>
+        <v>0.1285092644562447</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3267083384685832</v>
+        <v>0.3246016732155307</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7677125308987536</v>
+        <v>0.7479183025017402</v>
       </c>
     </row>
     <row r="6">
@@ -6497,13 +6497,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1215889158640626</v>
+        <v>0.09982210385769184</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2314808735537284</v>
+        <v>0.2588900929565529</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9214534326435898</v>
+        <v>0.8924435273001929</v>
       </c>
     </row>
     <row r="7">
@@ -6528,13 +6528,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1313600924709181</v>
+        <v>0.1204280720049056</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2729993572537679</v>
+        <v>0.2610681690385872</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8600487581918407</v>
+        <v>0.7633919510723942</v>
       </c>
     </row>
     <row r="8">
@@ -6559,13 +6559,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1764789212357702</v>
+        <v>0.1479767852798715</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3725397253633281</v>
+        <v>0.383349315480437</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9243029822767175</v>
+        <v>0.9380770128604092</v>
       </c>
     </row>
     <row r="9">
@@ -6590,13 +6590,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.190015533466694</v>
+        <v>0.1585103557999228</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3413652379852757</v>
+        <v>0.3743823223407795</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6918598332955899</v>
+        <v>0.7699755295458955</v>
       </c>
     </row>
     <row r="10">
@@ -6621,13 +6621,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.125144981757211</v>
+        <v>0.1312184895043395</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3294628226696942</v>
+        <v>0.3578968655708283</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8717237142898642</v>
+        <v>0.9082444610469762</v>
       </c>
     </row>
     <row r="11">
@@ -6652,13 +6652,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2018785171297541</v>
+        <v>0.1879823945296794</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3396793618525686</v>
+        <v>0.3381137531680278</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9154994355453789</v>
+        <v>0.9048691301042167</v>
       </c>
     </row>
     <row r="12">
@@ -6683,13 +6683,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1389662129565341</v>
+        <v>0.1271610152763785</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3026457252067112</v>
+        <v>0.3586190353112022</v>
       </c>
       <c r="G12" t="n">
-        <v>0.699926655141988</v>
+        <v>0.6857177089050649</v>
       </c>
     </row>
     <row r="13">
@@ -6714,13 +6714,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.130915717401245</v>
+        <v>0.1220857228185415</v>
       </c>
       <c r="F13" t="n">
-        <v>0.290721687662401</v>
+        <v>0.3595817908248243</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6936901879229446</v>
+        <v>0.4607057954493304</v>
       </c>
     </row>
     <row r="14">
@@ -6745,13 +6745,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1473384106733774</v>
+        <v>0.1270730331643416</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2932815792964595</v>
+        <v>0.3326171995683959</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8550709593080587</v>
+        <v>0.8882556294488401</v>
       </c>
     </row>
     <row r="15">
@@ -6776,13 +6776,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.1498701785195733</v>
+        <v>0.1267333857233461</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2952547686868131</v>
+        <v>0.3257498546112294</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8190076714746602</v>
+        <v>0.8913486560164019</v>
       </c>
     </row>
     <row r="16">
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1348668585801454</v>
+        <v>0.1178764178612974</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3020676661279283</v>
+        <v>0.3408936812763721</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9208390536171729</v>
+        <v>0.8509027962175195</v>
       </c>
     </row>
     <row r="17">
@@ -6838,13 +6838,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.2093277531430746</v>
+        <v>0.1902584951434026</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3325175104416962</v>
+        <v>0.3556023046779966</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9133313774258236</v>
+        <v>0.9014018910120881</v>
       </c>
     </row>
     <row r="18">
@@ -6869,13 +6869,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1156632959831088</v>
+        <v>0.09386265332331679</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2903995772013246</v>
+        <v>0.2739426453326889</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5868208288758379</v>
+        <v>0.5961298176503818</v>
       </c>
     </row>
     <row r="19">
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1872952725396275</v>
+        <v>0.1649495264898744</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3395178758176217</v>
+        <v>0.3069523248792008</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6269196287002572</v>
+        <v>0.7330165494538073</v>
       </c>
     </row>
   </sheetData>
@@ -7145,7 +7145,7 @@
         <v>0.08208958696141194</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2833647435651028</v>
+        <v>0.2918520866040863</v>
       </c>
       <c r="D2" t="n">
         <v>0.7491503645019474</v>
@@ -7154,7 +7154,7 @@
         <v>0.01575064894478216</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03004260972078816</v>
+        <v>0.03546929417448341</v>
       </c>
       <c r="G2" t="n">
         <v>0.1437330457418413</v>
@@ -7163,7 +7163,7 @@
         <v>0.05489363236837091</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2140601269782228</v>
+        <v>0.2223934603115561</v>
       </c>
       <c r="J2" t="n">
         <v>0.382831176269638</v>
@@ -7172,7 +7172,7 @@
         <v>0.1140777195744919</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3253501897437739</v>
+        <v>0.3421459761386313</v>
       </c>
       <c r="M2" t="n">
         <v>0.9111813439813872</v>
@@ -7367,7 +7367,7 @@
         <v>0.1058997501256321</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2668618193587315</v>
+        <v>0.278127238419243</v>
       </c>
       <c r="D4" t="n">
         <v>0.7987159111592808</v>
@@ -7376,7 +7376,7 @@
         <v>0.03154786191973317</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04127738263406631</v>
+        <v>0.04605627835320813</v>
       </c>
       <c r="G4" t="n">
         <v>0.1098119572158125</v>
@@ -7385,7 +7385,7 @@
         <v>0.03821712062510718</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1736050408391118</v>
+        <v>0.1703999126339836</v>
       </c>
       <c r="J4" t="n">
         <v>0.6225818585643652</v>
@@ -7394,7 +7394,7 @@
         <v>0.1658425703011601</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3333339974290856</v>
+        <v>0.3571435212386094</v>
       </c>
       <c r="M4" t="n">
         <v>0.9081081587271729</v>
@@ -7494,7 +7494,7 @@
         <v>0.1149808289628087</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2767064125743437</v>
+        <v>0.2657450540840036</v>
       </c>
       <c r="D5" t="n">
         <v>0.7489376307551003</v>
@@ -7503,7 +7503,7 @@
         <v>0.04738963796836864</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04845724644277718</v>
+        <v>0.04471307763725015</v>
       </c>
       <c r="G5" t="n">
         <v>0.1264100282130649</v>
@@ -7512,7 +7512,7 @@
         <v>0.03198671405589622</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2120389332380099</v>
+        <v>0.2081927793918561</v>
       </c>
       <c r="J5" t="n">
         <v>0.5828405764307693</v>
@@ -7521,7 +7521,7 @@
         <v>0.1816204270030371</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3526538105939511</v>
+        <v>0.333606191546332</v>
       </c>
       <c r="M5" t="n">
         <v>0.9252854533554009</v>
@@ -7601,7 +7601,7 @@
         <v>0.1377655174798085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2878713615495709</v>
+        <v>0.3030101439600147</v>
       </c>
       <c r="D6" t="n">
         <v>0.7445258361420666</v>
@@ -7610,7 +7610,7 @@
         <v>0.05102045568687512</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04830304738904919</v>
+        <v>0.05403748339357694</v>
       </c>
       <c r="G6" t="n">
         <v>0.116007828974211</v>
@@ -7619,7 +7619,7 @@
         <v>0.04500653599041117</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1763580320785203</v>
+        <v>0.1872554679759562</v>
       </c>
       <c r="J6" t="n">
         <v>0.5760314784493452</v>
@@ -7628,7 +7628,7 @@
         <v>0.2551855286176491</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4020742385377298</v>
+        <v>0.4211218575853489</v>
       </c>
       <c r="M6" t="n">
         <v>0.9083710383433946</v>
@@ -7728,7 +7728,7 @@
         <v>0.1147316637001267</v>
       </c>
       <c r="C7" t="n">
-        <v>0.276566300387944</v>
+        <v>0.2655248136924757</v>
       </c>
       <c r="D7" t="n">
         <v>0.748369249747951</v>
@@ -7737,7 +7737,7 @@
         <v>0.04696485655392792</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04863377884441385</v>
+        <v>0.04500057264587609</v>
       </c>
       <c r="G7" t="n">
         <v>0.1272018309423572</v>
@@ -7746,7 +7746,7 @@
         <v>0.0320489473462495</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2110322481398545</v>
+        <v>0.206545068652675</v>
       </c>
       <c r="J7" t="n">
         <v>0.5828405764307693</v>
@@ -7755,7 +7755,7 @@
         <v>0.1795648716112284</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3526538105939511</v>
+        <v>0.333606191546332</v>
       </c>
       <c r="M7" t="n">
         <v>0.9252854533554009</v>
@@ -7835,7 +7835,7 @@
         <v>0.1080200719536229</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2774179286093486</v>
+        <v>0.2847190139212144</v>
       </c>
       <c r="D8" t="n">
         <v>0.7445479849997549</v>
@@ -7844,7 +7844,7 @@
         <v>0.03750931910954306</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04467819794756157</v>
+        <v>0.04424939378981744</v>
       </c>
       <c r="G8" t="n">
         <v>0.1950285470562821</v>
@@ -7853,7 +7853,7 @@
         <v>0.0282416407933045</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1693435919612135</v>
+        <v>0.1674205150381366</v>
       </c>
       <c r="J8" t="n">
         <v>0.1235091914340451</v>
@@ -7862,7 +7862,7 @@
         <v>0.1689174524059005</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3493111683022194</v>
+        <v>0.3421683111593622</v>
       </c>
       <c r="M8" t="n">
         <v>0.9635762266826113</v>
@@ -8045,7 +8045,7 @@
         <v>0.1455803138850221</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2958474287357252</v>
+        <v>0.3087171454443676</v>
       </c>
       <c r="D10" t="n">
         <v>0.8179216698665777</v>
@@ -8054,7 +8054,7 @@
         <v>0.04082585294713778</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04876478864841175</v>
+        <v>0.05357308218140695</v>
       </c>
       <c r="G10" t="n">
         <v>0.113259665592209</v>
@@ -8063,7 +8063,7 @@
         <v>0.04826520173294598</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1846728557195388</v>
+        <v>0.1840318300785132</v>
       </c>
       <c r="J10" t="n">
         <v>0.5868208288758379</v>
@@ -8072,7 +8072,7 @@
         <v>0.2093277531430746</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3725397253633281</v>
+        <v>0.3773016301252329</v>
       </c>
       <c r="M10" t="n">
         <v>0.931474143556974</v>
@@ -8260,40 +8260,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1455803138850221</v>
+        <v>0.1272448545251731</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2958474287357252</v>
+        <v>0.3128690611564759</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8179216698665777</v>
+        <v>0.8086228219352509</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04082585294713778</v>
+        <v>0.03452748680339674</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04876478864841175</v>
+        <v>0.05439785841054107</v>
       </c>
       <c r="G12" t="n">
-        <v>0.113259665592209</v>
+        <v>0.1292185310539295</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04826520173294598</v>
+        <v>0.05135085245750105</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1846728557195388</v>
+        <v>0.1979049916070554</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5868208288758379</v>
+        <v>0.4607057954493304</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2093277531430746</v>
+        <v>0.1902584951434026</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3725397253633281</v>
+        <v>0.383349315480437</v>
       </c>
       <c r="M12" t="n">
-        <v>0.931474143556974</v>
+        <v>0.9380770128604092</v>
       </c>
       <c r="N12" t="n">
         <v>8</v>

--- a/test-code-generator/Evaluation/Results/quantitative_analysis_results.xlsx
+++ b/test-code-generator/Evaluation/Results/quantitative_analysis_results.xlsx
@@ -2876,51 +2876,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>44.44444444444444</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>55.55555555555556</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="F12" t="n">
-        <v>44.44444444444444</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
         <v>18</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>44.44444444444444</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="L12" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+        <v>11.11111111111111</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>50</v>
+      </c>
       <c r="P12" t="n">
-        <v>44.44444444444444</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="Q12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S12" t="n">
         <v>18</v>
@@ -2932,25 +2936,25 @@
         <v>55.55555555555556</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W12" t="n">
-        <v>5.555555555555555</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="X12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y12" t="n">
-        <v>38.88888888888889</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="Z12" t="n">
-        <v>38.88888888888889</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="AA12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC12" t="n">
         <v>18</v>
@@ -3247,13 +3251,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44.44444444444444</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="C12" t="n">
-        <v>44.44444444444444</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="D12" t="n">
-        <v>38.88888888888889</v>
+        <v>27.77777777777778</v>
       </c>
     </row>
     <row r="13">
@@ -6431,7 +6435,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6483,12 +6487,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -6545,12 +6549,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -6581,12 +6585,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6607,17 +6611,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6638,12 +6642,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -6669,12 +6673,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -6700,12 +6704,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -6731,12 +6735,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -6762,12 +6766,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -6793,12 +6797,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -6886,17 +6890,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -8296,51 +8300,55 @@
         <v>0.9380770128604092</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O12" t="n">
-        <v>44.44444444444444</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.55555555555556</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="R12" t="n">
-        <v>44.44444444444444</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="S12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T12" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
         <v>18</v>
       </c>
       <c r="V12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W12" t="n">
-        <v>44.44444444444444</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Y12" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
+        <v>11.11111111111111</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>50</v>
+      </c>
       <c r="AB12" t="n">
-        <v>44.44444444444444</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>18</v>
@@ -8352,25 +8360,25 @@
         <v>55.55555555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI12" t="n">
-        <v>5.555555555555555</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK12" t="n">
-        <v>38.88888888888889</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="AL12" t="n">
-        <v>38.88888888888889</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="AM12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO12" t="n">
         <v>18</v>
